--- a/testdata/FCfiles/qa/ManageInvoiceTestData.xlsx
+++ b/testdata/FCfiles/qa/ManageInvoiceTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>Additional Handling Required</t>
   </si>
@@ -325,6 +325,15 @@
   </si>
   <si>
     <t>58327790</t>
+  </si>
+  <si>
+    <t>01-03-2022</t>
+  </si>
+  <si>
+    <t>58532881</t>
+  </si>
+  <si>
+    <t>58532883</t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="210">
+  <fills count="224">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,8 +1411,78 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="208">
+  <borders count="222">
     <border>
       <left/>
       <right/>
@@ -2158,6 +2237,55 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2166,7 +2294,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
@@ -2279,7 +2407,14 @@
     <xf applyBorder="true" applyFill="true" borderId="201" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="203" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="205" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="209" borderId="207" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="209" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="211" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="213" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="215" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="217" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="219" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="221" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="221" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2768,8 +2903,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
-        <v>95</v>
+      <c r="A2" s="114" t="s">
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2783,7 +2918,7 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="117" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2801,8 +2936,8 @@
       <c r="K2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="109" t="s">
-        <v>98</v>
+      <c r="L2" s="116" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
